--- a/APF/QA/RA006/QAP001_APF_RA006_APF0202_角色功能清單設定.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0202_角色功能清單設定.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="360" windowWidth="10920" windowHeight="5520" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="檢視項目清單" sheetId="27" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">改善明細!$A$2:$N$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">改善明細!$A$2:$N$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">修訂履歷!$B$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">檢視重點項目!$A$1:$L$173</definedName>
     <definedName name="review階段">備註說明!$G$2:$G$12</definedName>
@@ -24,7 +29,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,7 +40,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1">
+    <comment ref="Q6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="419">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2484,10 +2489,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>儲存及回上一頁各有兩個按鈕，可回到APF0101MU1角色維護，及APF0202MM1角色功能清單設定，須在SD文件上說明</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>SD PM-3</t>
   </si>
   <si>
@@ -2499,14 +2500,30 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能設計</t>
-  </si>
-  <si>
     <t>林傳勝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存及回上一頁各有兩個按鈕，可回到APF0101MU1角色維護，及APF0202MM1角色功能清單設定，在功能簡述增加補充說明及畫面_APF0202MA1上增加描述說明</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>林傳勝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳勝、英杰、慕霖、鈺杰、懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>英杰、慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -4092,7 +4109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4127,7 +4144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4606,7 +4623,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4735,27 +4752,27 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>6.3333333333333348</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4931,7 +4948,7 @@
       </c>
       <c r="O8" s="63">
         <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="71" t="str">
         <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
@@ -4954,7 +4971,7 @@
         <v>379</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E9" s="66">
         <v>41591</v>
@@ -4986,11 +5003,11 @@
       </c>
       <c r="N9" s="63">
         <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="63">
         <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="71" t="str">
         <f t="shared" ref="P9" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
@@ -5002,24 +5019,63 @@
       </c>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+    <row r="10" spans="1:20" s="55" customFormat="1" ht="33">
+      <c r="A10" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="66">
+        <v>41598</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="66">
+        <v>41598</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="J10" s="65">
+        <v>4</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>417</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="M10" s="70">
+        <f>IF(C10="","",J10*(I10-H10)*24)</f>
+        <v>0.6666666666666643</v>
+      </c>
+      <c r="N10" s="63">
+        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="63">
+        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="71" t="str">
+        <f t="shared" ref="P10" si="3">IF(Q10="","",LEFT(Q10,FIND("-",Q10)-1))</f>
+        <v>SD PM</v>
+      </c>
+      <c r="Q10" s="71" t="str">
+        <f>IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
+        <v>SD PM-4</v>
+      </c>
       <c r="R10" s="74"/>
     </row>
     <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
@@ -5059,7 +5115,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" ref="M12:M20" si="3">IF(C12="","",J12*(I12-H12)*24)</f>
+        <f t="shared" ref="M12:M20" si="4">IF(C12="","",J12*(I12-H12)*24)</f>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5071,11 +5127,11 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P12:P20" ca="1" si="4">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <f t="shared" ref="P12:P20" ca="1" si="5">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ref="Q12:Q20" ca="1" si="5">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
+        <f t="shared" ref="Q12:Q20" ca="1" si="6">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
         <v/>
       </c>
       <c r="R12" s="74"/>
@@ -5097,7 +5153,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
       <c r="M13" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="63" t="str">
@@ -5109,11 +5165,11 @@
         <v/>
       </c>
       <c r="P13" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q13" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R13" s="74"/>
@@ -5135,7 +5191,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N14" s="63" t="str">
@@ -5147,11 +5203,11 @@
         <v/>
       </c>
       <c r="P14" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q14" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R14" s="74"/>
@@ -5173,7 +5229,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
       <c r="M15" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N15" s="63" t="str">
@@ -5185,7 +5241,7 @@
         <v/>
       </c>
       <c r="P15" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q15" s="71" t="str">
@@ -5211,7 +5267,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
       <c r="M16" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -5223,11 +5279,11 @@
         <v/>
       </c>
       <c r="P16" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q16" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R16" s="74"/>
@@ -5249,7 +5305,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -5261,11 +5317,11 @@
         <v/>
       </c>
       <c r="P17" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q17" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R17" s="74"/>
@@ -5287,7 +5343,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -5299,11 +5355,11 @@
         <v/>
       </c>
       <c r="P18" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q18" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R18" s="74"/>
@@ -5325,7 +5381,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
       <c r="M19" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N19" s="63" t="str">
@@ -5337,11 +5393,11 @@
         <v/>
       </c>
       <c r="P19" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q19" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R19" s="74"/>
@@ -5363,7 +5419,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="69"/>
       <c r="M20" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N20" s="63" t="str">
@@ -5375,11 +5431,11 @@
         <v/>
       </c>
       <c r="P20" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q20" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R20" s="74"/>
@@ -5917,13 +5973,13 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6045,15 +6101,15 @@
         <v>41569</v>
       </c>
       <c r="J3" s="89" t="str">
-        <f t="shared" ref="J3:J8" si="0">IF(I3="","","V")</f>
+        <f t="shared" ref="J3:J7" si="0">IF(I3="","","V")</f>
         <v>V</v>
       </c>
       <c r="K3" s="89" t="str">
-        <f t="shared" ref="K3:K8" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
+        <f t="shared" ref="K3:K7" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
       <c r="L3" s="90" t="str">
-        <f t="shared" ref="L3:L8" si="2">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
+        <f t="shared" ref="L3:L7" si="2">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="M3" s="90"/>
@@ -6086,14 +6142,16 @@
       <c r="H4" s="91">
         <v>41582</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="91">
+        <v>41583</v>
+      </c>
       <c r="J4" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K4" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L4" s="90" t="str">
         <f t="shared" si="2"/>
@@ -6129,14 +6187,16 @@
       <c r="H5" s="91">
         <v>41582</v>
       </c>
-      <c r="I5" s="91"/>
+      <c r="I5" s="91">
+        <v>41583</v>
+      </c>
       <c r="J5" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K5" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L5" s="90" t="str">
         <f t="shared" si="2"/>
@@ -6149,10 +6209,10 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A6" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>410</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>411</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>404</v>
@@ -6166,7 +6226,9 @@
       <c r="F6" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="44" t="s">
+        <v>399</v>
+      </c>
       <c r="H6" s="91">
         <v>41591</v>
       </c>
@@ -6192,16 +6254,16 @@
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>406</v>
@@ -6209,7 +6271,9 @@
       <c r="F7" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="44" t="s">
+        <v>398</v>
+      </c>
       <c r="H7" s="91">
         <v>41592</v>
       </c>
@@ -6233,50 +6297,25 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="33">
-      <c r="A8" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="91">
-        <v>41592</v>
-      </c>
-      <c r="I8" s="91">
-        <v>41592</v>
-      </c>
-      <c r="J8" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>V</v>
-      </c>
-      <c r="K8" s="89" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" s="90" t="str">
-        <f t="shared" si="2"/>
-        <v>SD PM</v>
-      </c>
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="16.5">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="90"/>
       <c r="N8" s="36"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.5">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
@@ -6294,7 +6333,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -6312,7 +6351,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.5">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -6373,7 +6412,7 @@
       <c r="D14" s="43"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="91"/>
       <c r="I14" s="91"/>
       <c r="J14" s="89"/>
@@ -6409,7 +6448,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="45"/>
       <c r="F16" s="46"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="91"/>
       <c r="I16" s="91"/>
       <c r="J16" s="89"/>
@@ -6423,13 +6462,13 @@
     <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="43"/>
       <c r="E17" s="45"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="89"/>
       <c r="K17" s="89"/>
       <c r="L17" s="90"/>
@@ -6447,7 +6486,7 @@
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="90"/>
@@ -6483,7 +6522,7 @@
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
+      <c r="I20" s="92"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="90"/>
@@ -6500,7 +6539,7 @@
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
-      <c r="H21" s="91"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="92"/>
       <c r="J21" s="89"/>
       <c r="K21" s="89"/>
@@ -6573,7 +6612,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
+      <c r="I25" s="91"/>
       <c r="J25" s="89"/>
       <c r="K25" s="89"/>
       <c r="L25" s="90"/>
@@ -6591,7 +6630,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="92"/>
-      <c r="I26" s="91"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="89"/>
       <c r="K26" s="89"/>
       <c r="L26" s="90"/>
@@ -6601,7 +6640,7 @@
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="41"/>
       <c r="C27" s="48"/>
       <c r="D27" s="43"/>
@@ -6609,10 +6648,19 @@
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="89" t="str">
+        <f t="shared" ref="J27:J41" si="3">IF(I27="","","V")</f>
+        <v/>
+      </c>
+      <c r="K27" s="89" t="str">
+        <f t="shared" ref="K27:K41" si="4">IF(OR(J27&lt;&gt;"",C27=""),"","V")</f>
+        <v/>
+      </c>
+      <c r="L27" s="90" t="str">
+        <f t="shared" ref="L27:L41" si="5">IF(A27="","",LEFT(A27,FIND("-",A27)-1))</f>
+        <v/>
+      </c>
       <c r="M27" s="90"/>
       <c r="N27" s="36"/>
       <c r="O27" s="22"/>
@@ -6629,15 +6677,15 @@
       <c r="H28" s="92"/>
       <c r="I28" s="91"/>
       <c r="J28" s="89" t="str">
-        <f t="shared" ref="J28:J42" si="3">IF(I28="","","V")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K28" s="89" t="str">
-        <f t="shared" ref="K28:K42" si="4">IF(OR(J28&lt;&gt;"",C28=""),"","V")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L28" s="90" t="str">
-        <f t="shared" ref="L28:L42" si="5">IF(A28="","",LEFT(A28,FIND("-",A28)-1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M28" s="90"/>
@@ -7007,15 +7055,15 @@
       <c r="H42" s="92"/>
       <c r="I42" s="91"/>
       <c r="J42" s="89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J42:J50" si="6">IF(I42="","","V")</f>
         <v/>
       </c>
       <c r="K42" s="89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K42:K50" si="7">IF(OR(J42&lt;&gt;"",C42=""),"","V")</f>
         <v/>
       </c>
       <c r="L42" s="90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L42:L50" si="8">IF(A42="","",LEFT(A42,FIND("-",A42)-1))</f>
         <v/>
       </c>
       <c r="M42" s="90"/>
@@ -7034,15 +7082,15 @@
       <c r="H43" s="92"/>
       <c r="I43" s="91"/>
       <c r="J43" s="89" t="str">
-        <f t="shared" ref="J43:J51" si="6">IF(I43="","","V")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K43" s="89" t="str">
-        <f t="shared" ref="K43:K51" si="7">IF(OR(J43&lt;&gt;"",C43=""),"","V")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L43" s="90" t="str">
-        <f t="shared" ref="L43:L51" si="8">IF(A43="","",LEFT(A43,FIND("-",A43)-1))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M43" s="90"/>
@@ -7240,31 +7288,24 @@
       <c r="P50" s="22"/>
     </row>
     <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="89" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K51" s="89" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L51" s="90" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M51" s="90"/>
-      <c r="N51" s="36"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
     </row>
     <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A52" s="86"/>
@@ -8346,25 +8387,8 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A106" s="86"/>
-      <c r="B106" s="86"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="88"/>
+    <row r="106" spans="1:18" ht="31.15" customHeight="1">
       <c r="I106" s="88"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
     </row>
     <row r="107" spans="1:18" ht="31.15" customHeight="1">
       <c r="I107" s="88"/>
@@ -8383,27 +8407,24 @@
     </row>
     <row r="112" spans="1:18" ht="31.15" customHeight="1">
       <c r="I112" s="88"/>
-    </row>
-    <row r="113" spans="9:9" ht="31.15" customHeight="1">
-      <c r="I113" s="88"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52:C62 D63:E106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51:C61 D62:E105">
       <formula1>"需求,分析,資安,設計,測試,規範,SLA,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K50">
       <formula1>"V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A50">
       <formula1>次數選單</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65512">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65511">
       <formula1>植入Bug來源</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65512">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65511">
       <formula1>原因分類</formula1>
     </dataValidation>
   </dataValidations>
